--- a/Data/checkWork -30.12.23.xlsx
+++ b/Data/checkWork -30.12.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\הערות פיתוח פנימי\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26078027-0668-42B5-A9AC-79A6F59E6EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F73B6-3CFF-44D3-892C-50DA3DCAB005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -2416,8 +2416,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView rightToLeft="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4032,7 +4032,7 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>346</v>
@@ -4145,9 +4145,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/checkWork -30.12.23.xlsx
+++ b/Data/checkWork -30.12.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\הערות פיתוח פנימי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F73B6-3CFF-44D3-892C-50DA3DCAB005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E811346F-ECEC-488C-8C1D-C25DC7878B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="1" r:id="rId1"/>
@@ -1648,7 +1648,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1658,6 +1658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,7 +1680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1747,6 +1753,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2052,10 +2061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,7 +2073,7 @@
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2097,29 +2106,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
+      <c r="B4" s="29" t="s">
+        <v>410</v>
       </c>
       <c r="C4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>410</v>
+      <c r="B5" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2142,14 +2152,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2178,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,7 +2216,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2220,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2234,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,7 +2258,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,7 +2272,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2276,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2290,7 +2300,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,7 +2328,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,7 +2356,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,7 +2370,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2374,7 +2384,7 @@
         <v>96</v>
       </c>
       <c r="D16" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,7 +2398,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2402,7 +2412,7 @@
         <v>105</v>
       </c>
       <c r="D18" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2416,8 +2426,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView rightToLeft="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4075,7 +4085,7 @@
         <v>239</v>
       </c>
       <c r="D72" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
         <v>278</v>
@@ -4145,9 +4155,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5563,7 +5573,7 @@
         <v>89</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
@@ -5586,7 +5596,7 @@
         <v>90</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>85</v>
@@ -5609,7 +5619,7 @@
         <v>91</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>83</v>
@@ -5632,7 +5642,7 @@
         <v>92</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>83</v>
@@ -5656,7 +5666,7 @@
         <v>94</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>5</v>
@@ -5680,7 +5690,7 @@
         <v>97</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>85</v>
@@ -5703,7 +5713,7 @@
         <v>96</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>5</v>
@@ -5727,7 +5737,7 @@
         <v>98</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>85</v>
@@ -5750,7 +5760,7 @@
         <v>99</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>83</v>
@@ -5774,7 +5784,7 @@
         <v>100</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>83</v>
@@ -5798,7 +5808,7 @@
         <v>101</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>5</v>
@@ -5822,10 +5832,10 @@
         <v>102</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -5845,7 +5855,7 @@
         <v>103</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>83</v>
@@ -5935,7 +5945,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6024,8 +6034,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" s="28">
+        <v>4</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6035,8 +6045,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>3</v>
+      <c r="B9" s="28">
+        <v>4</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6046,8 +6056,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3</v>
+      <c r="B10" s="28">
+        <v>4</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -6057,8 +6067,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" s="28">
+        <v>4</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -6068,8 +6078,8 @@
       <c r="A12">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" s="28">
+        <v>4</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -6079,8 +6089,8 @@
       <c r="A13">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" s="29">
+        <v>3</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -6090,8 +6100,8 @@
       <c r="A14">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="B14" s="29">
+        <v>3</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -6101,8 +6111,8 @@
       <c r="A15">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>4</v>
+      <c r="B15" s="29">
+        <v>3</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -6112,8 +6122,8 @@
       <c r="A16">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>4</v>
+      <c r="B16" s="29">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -6123,8 +6133,8 @@
       <c r="A17">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="B17" s="29">
+        <v>3</v>
       </c>
       <c r="C17">
         <v>19</v>
